--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,76%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>71,39; 81,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>60,28; 72,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>40,06; 52,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>81,58; 89,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>66,89; 77,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>48,13; 56,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>78,52; 85,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>65,27; 73,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>45,85; 54,04</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>55,43; 64,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>45,62; 55,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>76,98; 83,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>50,23; 61,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>59,03; 67,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>46,81; 56,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>77,74; 84,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>48,95; 56,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>58,24; 64,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>47,73; 54,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>78,21; 83,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>51,11; 57,88</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>40,9; 52,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>53,38; 64,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,67; 77,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>35,03; 46,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>36,12; 46,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>61,18; 71,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>71,27; 80,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>42,97; 52,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>39,77; 47,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>59,17; 66,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>71,14; 77,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>40,71; 47,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,09%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>59,0; 69,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>50,76; 58,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>30,7; 40,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>20,29; 30,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>56,41; 66,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>60,08; 67,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>34,09; 44,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>23,5; 32,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>59,26; 66,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>56,47; 62,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>34,02; 41,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>23,77; 30,63</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>62,38; 74,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>45,48; 59,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>79,25; 89,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>86,38; 94,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>68,31; 80,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>60,63; 72,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>81,44; 90,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>87,03; 93,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>66,37; 75,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>55,28; 65,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>81,73; 88,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>88,47; 93,72</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,44%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>52,97; 65,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>52,85; 65,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>67,35; 77,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>31,62; 41,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>49,49; 61,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>60,78; 72,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>71,06; 81,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>32,12; 41,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>52,79; 61,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>58,69; 67,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>70,58; 78,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>33,12; 40,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,21%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>39,02; 46,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>51,44; 59,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>75,48; 82,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>50,28; 59,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>32,15; 39,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>56,95; 64,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>73,38; 79,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>50,91; 73,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>36,61; 42,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>55,53; 60,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>75,49; 80,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>52,71; 68,63</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,3%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,29%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>69,28; 75,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>83,1; 87,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>81,72; 87,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>60,55; 82,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,79; 82,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>80,62; 85,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>85,66; 90,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>81,92; 86,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>74,36; 78,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>82,69; 86,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>84,47; 88,02</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>70,52; 83,5</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,85%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,95; 62,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,38; 63,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>72,36; 75,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,18; 58,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>59,65; 62,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>65,15; 68,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,53; 77,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>57,3; 63,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,76; 62,22</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>63,18; 65,65</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>74,07; 76,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>56,24; 59,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,51%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,12%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,76; 71,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 52,62</t>
+          <t>38,57; 52,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,2; 81,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,13; 56,99</t>
+          <t>48,04; 57,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,19; 75,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,85; 54,04</t>
+          <t>44,49; 53,66</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>54,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,23; 61,3</t>
+          <t>49,88; 61,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,95; 56,78</t>
+          <t>48,98; 56,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 57,88</t>
+          <t>50,86; 57,87</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,03; 46,23</t>
+          <t>34,48; 45,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 52,6</t>
+          <t>42,89; 52,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,71; 47,37</t>
+          <t>40,35; 47,13</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,76; 58,74</t>
+          <t>41,29; 52,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 30,89</t>
+          <t>19,83; 30,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,08; 67,74</t>
+          <t>50,25; 60,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,5; 32,9</t>
+          <t>14,28; 30,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,47; 62,19</t>
+          <t>47,08; 54,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,63</t>
+          <t>17,65; 28,16</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,91</t>
+          <t>86,44; 94,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,03; 93,97</t>
+          <t>87,17; 93,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,47; 93,72</t>
+          <t>88,58; 93,77</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,31%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,62; 41,49</t>
+          <t>31,3; 41,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,12; 41,06</t>
+          <t>32,17; 41,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,12; 40,13</t>
+          <t>33,01; 40,01</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>60,13%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,28; 59,75</t>
+          <t>50,26; 59,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,91; 73,68</t>
+          <t>51,08; 81,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,71; 68,63</t>
+          <t>52,83; 75,81</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>84,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>70,44%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,55; 82,03</t>
+          <t>28,32; 82,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>81,92; 86,87</t>
+          <t>82,05; 86,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>70,52; 83,5</t>
+          <t>41,41; 83,37</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>55,2%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53,18; 58,41</t>
+          <t>39,68; 56,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57,3; 63,92</t>
+          <t>54,67; 66,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>56,24; 59,97</t>
+          <t>49,32; 58,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,39; 81,84</t>
+          <t>72,59; 82,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,76; 71,68</t>
+          <t>59,8; 71,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,28; 72,13</t>
+          <t>59,57; 71,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,57; 52,18</t>
+          <t>38,56; 52,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,58; 89,78</t>
+          <t>81,1; 89,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,2; 81,85</t>
+          <t>70,86; 81,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,89; 77,79</t>
+          <t>67,03; 77,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,04; 57,57</t>
+          <t>48,36; 58,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,52; 85,01</t>
+          <t>78,31; 84,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,19; 75,06</t>
+          <t>66,98; 75,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,27; 73,11</t>
+          <t>65,28; 73,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,49; 53,66</t>
+          <t>45,0; 53,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,43; 64,36</t>
+          <t>55,12; 64,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,62; 55,27</t>
+          <t>45,97; 55,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,98; 83,91</t>
+          <t>77,14; 83,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,88; 61,48</t>
+          <t>49,64; 60,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,03; 67,41</t>
+          <t>58,89; 67,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 56,0</t>
+          <t>47,05; 55,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 84,62</t>
+          <t>77,35; 84,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 56,8</t>
+          <t>48,89; 56,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,24; 64,56</t>
+          <t>58,45; 64,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,73; 54,14</t>
+          <t>47,82; 54,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,21; 83,51</t>
+          <t>78,38; 83,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,86; 57,87</t>
+          <t>50,27; 57,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,9; 52,59</t>
+          <t>40,67; 52,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,38; 64,28</t>
+          <t>52,75; 63,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,67; 77,39</t>
+          <t>67,72; 77,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,48; 45,86</t>
+          <t>34,95; 45,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,12; 46,77</t>
+          <t>35,71; 46,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,18; 71,63</t>
+          <t>61,58; 72,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,27; 80,69</t>
+          <t>70,92; 79,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,89; 52,54</t>
+          <t>42,88; 52,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,77; 47,23</t>
+          <t>39,97; 47,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,17; 66,38</t>
+          <t>58,82; 66,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,14; 77,76</t>
+          <t>70,93; 77,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,35; 47,13</t>
+          <t>40,0; 47,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,0; 69,49</t>
+          <t>59,08; 69,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 52,22</t>
+          <t>41,32; 51,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,7; 40,95</t>
+          <t>31,11; 41,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,83; 30,59</t>
+          <t>19,27; 30,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,41; 66,42</t>
+          <t>56,64; 66,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 60,85</t>
+          <t>50,15; 60,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 44,52</t>
+          <t>33,95; 44,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 30,19</t>
+          <t>14,49; 30,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,26; 66,08</t>
+          <t>59,36; 66,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,08; 54,49</t>
+          <t>47,14; 54,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 41,22</t>
+          <t>33,76; 40,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 28,16</t>
+          <t>16,94; 28,56</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,38; 74,92</t>
+          <t>61,49; 75,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,48; 59,19</t>
+          <t>45,95; 59,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,25; 89,06</t>
+          <t>79,39; 89,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,44; 94,89</t>
+          <t>86,87; 94,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>68,31; 80,62</t>
+          <t>67,19; 79,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,63; 72,77</t>
+          <t>60,28; 73,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,44; 90,56</t>
+          <t>80,76; 90,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,17; 93,98</t>
+          <t>87,73; 93,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,37; 75,66</t>
+          <t>66,47; 75,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,28; 65,09</t>
+          <t>55,67; 65,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,73; 88,58</t>
+          <t>81,57; 88,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,58; 93,77</t>
+          <t>88,22; 93,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,97; 65,09</t>
+          <t>52,81; 64,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52,85; 65,05</t>
+          <t>53,44; 64,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,35; 77,64</t>
+          <t>67,0; 78,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,3; 41,17</t>
+          <t>30,74; 40,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,49; 61,13</t>
+          <t>49,83; 61,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,78; 72,68</t>
+          <t>61,58; 73,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,06; 81,45</t>
+          <t>71,57; 82,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,17; 41,04</t>
+          <t>32,3; 41,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,79; 61,05</t>
+          <t>52,52; 61,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>58,69; 67,11</t>
+          <t>58,73; 67,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>70,58; 78,23</t>
+          <t>70,61; 78,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,01; 40,01</t>
+          <t>32,77; 39,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,02; 46,97</t>
+          <t>39,19; 47,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,44; 59,47</t>
+          <t>51,48; 59,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,48; 82,4</t>
+          <t>75,43; 82,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,26; 59,89</t>
+          <t>50,61; 59,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,15; 39,92</t>
+          <t>32,03; 39,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,95; 64,54</t>
+          <t>56,85; 64,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>73,38; 79,85</t>
+          <t>73,2; 80,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,08; 81,76</t>
+          <t>50,83; 83,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36,61; 42,47</t>
+          <t>36,88; 42,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55,53; 60,84</t>
+          <t>55,39; 60,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>75,49; 80,21</t>
+          <t>75,42; 80,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,83; 75,81</t>
+          <t>52,54; 74,38</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69,28; 75,93</t>
+          <t>69,43; 76,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,1; 87,99</t>
+          <t>83,12; 88,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,72; 87,05</t>
+          <t>81,93; 87,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,32; 82,05</t>
+          <t>26,06; 81,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,79; 82,22</t>
+          <t>76,37; 82,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,62; 85,75</t>
+          <t>80,33; 85,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>85,66; 90,38</t>
+          <t>85,61; 90,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,05; 86,87</t>
+          <t>81,87; 86,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,36; 78,57</t>
+          <t>74,03; 78,51</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>82,69; 86,26</t>
+          <t>82,62; 86,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>84,47; 88,02</t>
+          <t>84,42; 88,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,41; 83,37</t>
+          <t>43,86; 83,45</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>58,95; 62,32</t>
+          <t>59,15; 62,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>60,38; 63,69</t>
+          <t>60,1; 63,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>72,36; 75,49</t>
+          <t>72,31; 75,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>39,68; 56,55</t>
+          <t>39,25; 56,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>59,65; 62,89</t>
+          <t>59,51; 62,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>65,15; 68,44</t>
+          <t>65,2; 68,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>74,53; 77,51</t>
+          <t>74,56; 77,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>54,67; 66,72</t>
+          <t>54,62; 65,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>59,76; 62,22</t>
+          <t>59,81; 62,09</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63,18; 65,65</t>
+          <t>63,27; 65,54</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,07</t>
+          <t>74,01; 76,13</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,32; 58,67</t>
+          <t>49,44; 58,84</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>210879</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>188443</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>193323</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>140729</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>224290</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>213016</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>205880</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>151554</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>435169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>401459</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>399203</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>292284</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>197571; 223501</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>171162; 203993</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>173749; 207762</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>118602; 160507</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>211544; 234458</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>197222; 227016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>190569; 220267</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>139011; 167222</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>417399; 451513</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>378132; 424734</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>375982; 420641</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>267777; 318288</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>292046</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>255245</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>404233</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>287168</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>318618</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270182</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>422905</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>270874</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>610664</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>525428</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>827137</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>558041</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>270238; 314713</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>231926; 279216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>386170; 420219</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>257332; 314737</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>296767; 338285</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>246436; 293174</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>403129; 439021</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>250666; 291021</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>581143; 641580</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>491765; 555996</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>800885; 851778</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>518263; 591866</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>148827</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>190140</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>229718</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>120920</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>137824</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>226978</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>255457</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157746</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>286650</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>417118</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>485175</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>278666</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>129663; 166977</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>170920; 207074</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>214428; 244335</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106091; 138428</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>119761; 156411</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>208643; 244917</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>237899; 268172</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>142849; 175393</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>261496; 312216</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>389919; 441466</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>462530; 505791</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>254689; 302050</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>229655</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>173059</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>131397</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>77007</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>228544</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>214828</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>152194</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>111465</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>458199</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>387887</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>283591</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>188472</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>211891; 247962</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>154124; 191882</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114777; 153149</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59687; 95371</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>210381; 248002</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>195068; 235346</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>131151; 171006</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>68381; 141621</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>433393; 484013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>359212; 418130</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>254971; 308955</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>132375; 223215</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>139042</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112136</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>178498</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>163084</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>153588</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>147123</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>187662</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>190022</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>292630</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>259260</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>366160</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>353106</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>125007; 152682</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97694; 127331</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>166832; 188260</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>154671; 168588</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>138873; 164302</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>132367; 160659</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>176533; 196788</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>182721; 195293</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>272500; 310477</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>240610; 282110</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>349722; 380303</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>340833; 361049</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>159555</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>161058</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>190853</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>96677</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>153930</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>186589</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>209942</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>94368</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>313485</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>347647</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>400796</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>191045</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>143014; 175376</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>145854; 177207</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>176303; 205337</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>82714; 109675</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>138590; 170434</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>170517; 204139</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>195466; 224270</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>83024; 106449</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>288306; 334983</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>322899; 370994</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>378620; 419586</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>172429; 208047</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>264879</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>364106</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>515620</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>344416</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>228046</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>416087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>522531</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>536814</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>492925</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>780192</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1038151</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>881231</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>241006; 289152</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>337930; 389351</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>492539; 536752</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>314826; 371968</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>204097; 252339</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>388224; 441575</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>499328; 545883</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>428777; 704473</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>461776; 530085</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>741835; 816680</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1006898; 1068420</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>769984; 1090108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>541178</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>665299</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>654811</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>551773</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>623540</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>685738</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>726395</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>603947</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1164717</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1351037</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1381206</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1155720</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>515843; 564750</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>644997; 686800</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>634913; 676066</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>241057; 757173</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>598394; 644143</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>660850; 707285</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>706177; 744407</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>585756; 620648</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1130088; 1198456</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1320783; 1380699</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1350579; 1408262</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>719579; 1369057</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1986059</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2109487</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2498453</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1781775</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2068380</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2360541</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2682965</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2116789</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4054439</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4470028</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5181419</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3898565</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1935520; 2047449</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2047014; 2164819</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2443440; 2549433</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1347645; 1940319</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2009712; 2120774</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2303002; 2419673</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2628925; 2732085</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1982363; 2366368</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3977174; 4128712</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4389377; 4546755</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5110015; 5256477</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3491972; 4156024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>